--- a/grid_world/result/Var_1.xlsx
+++ b/grid_world/result/Var_1.xlsx
@@ -452,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.544046175662203</v>
+        <v>7.482851204456644</v>
       </c>
       <c r="C2" t="n">
-        <v>7.53556291104665</v>
+        <v>7.527738081791803</v>
       </c>
       <c r="D2" t="n">
-        <v>7.766746192431796</v>
+        <v>7.74965970552115</v>
       </c>
       <c r="E2" t="n">
-        <v>7.544587583864224</v>
+        <v>7.509660966816902</v>
       </c>
     </row>
     <row r="3">
@@ -469,16 +469,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.547559413489324</v>
+        <v>7.501306856978569</v>
       </c>
       <c r="C3" t="n">
-        <v>7.71195781101239</v>
+        <v>7.702578064725067</v>
       </c>
       <c r="D3" t="n">
-        <v>8.05127385635652</v>
+        <v>7.981811421352131</v>
       </c>
       <c r="E3" t="n">
-        <v>7.779454502330523</v>
+        <v>7.739705349254368</v>
       </c>
     </row>
     <row r="4">
@@ -486,16 +486,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.797077324371848</v>
+        <v>7.735887663326316</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.060311442650253</v>
+        <v>7.946697521211796</v>
       </c>
       <c r="E4" t="n">
-        <v>8.063798747118678</v>
+        <v>7.975066608133911</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +503,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.054903394486448</v>
+        <v>7.985483865990663</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.929733701932278</v>
+        <v>7.755908998670783</v>
       </c>
       <c r="E5" t="n">
-        <v>8.078144667742588</v>
+        <v>7.949573852668934</v>
       </c>
     </row>
     <row r="6">
@@ -520,16 +520,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.051923437703291</v>
+        <v>7.944135870076462</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.630935746115505</v>
+        <v>7.413184380313844</v>
       </c>
       <c r="E6" t="n">
-        <v>7.951704352194589</v>
+        <v>7.781790110178704</v>
       </c>
     </row>
     <row r="7">
@@ -537,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.905681613061923</v>
+        <v>7.786936443343052</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.155700218938328</v>
+        <v>6.912599491459659</v>
       </c>
       <c r="E7" t="n">
-        <v>7.585404797085303</v>
+        <v>7.39762005255001</v>
       </c>
     </row>
     <row r="8">
@@ -554,16 +554,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.579557139637657</v>
+        <v>7.466408415198281</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.510260190584113</v>
+        <v>6.239257023594782</v>
       </c>
       <c r="E8" t="n">
-        <v>7.076276424190766</v>
+        <v>6.932653488679037</v>
       </c>
     </row>
     <row r="9">
@@ -571,16 +571,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.079720213083114</v>
+        <v>6.914316323892585</v>
       </c>
       <c r="C9" t="n">
-        <v>5.912497445725705</v>
+        <v>5.76958421813854</v>
       </c>
       <c r="D9" t="n">
-        <v>6.009891310142677</v>
+        <v>5.876828934706872</v>
       </c>
       <c r="E9" t="n">
-        <v>6.357634305820532</v>
+        <v>6.212255475510162</v>
       </c>
     </row>
     <row r="10">
@@ -588,16 +588,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.438206440969864</v>
+        <v>6.259449892367471</v>
       </c>
       <c r="C10" t="n">
-        <v>5.715118486568542</v>
+        <v>5.518660950855377</v>
       </c>
       <c r="D10" t="n">
-        <v>6.053444227437758</v>
+        <v>5.865712806494265</v>
       </c>
       <c r="E10" t="n">
-        <v>6.04189395246182</v>
+        <v>5.877614984039276</v>
       </c>
     </row>
     <row r="11">
@@ -605,16 +605,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.558005113021316</v>
+        <v>7.522624294972346</v>
       </c>
       <c r="C11" t="n">
-        <v>7.678068286073497</v>
+        <v>7.717441955530811</v>
       </c>
       <c r="D11" t="n">
-        <v>7.694876846963631</v>
+        <v>7.65421387633933</v>
       </c>
       <c r="E11" t="n">
-        <v>7.536033246297105</v>
+        <v>7.491021609749698</v>
       </c>
     </row>
     <row r="12">
@@ -622,16 +622,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.548207901873798</v>
+        <v>7.530731726783969</v>
       </c>
       <c r="C12" t="n">
-        <v>7.802413443345232</v>
+        <v>7.842877589084509</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>7.839697687310771</v>
+        <v>7.790520008598733</v>
       </c>
     </row>
     <row r="13">
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>5.550286117163694</v>
+        <v>5.31775420588292</v>
       </c>
       <c r="D18" t="n">
-        <v>5.716235703733858</v>
+        <v>5.523275135652156</v>
       </c>
       <c r="E18" t="n">
-        <v>6.354519938336956</v>
+        <v>6.282567906889184</v>
       </c>
     </row>
     <row r="19">
@@ -741,16 +741,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.933386284570695</v>
+        <v>5.773538725438129</v>
       </c>
       <c r="C19" t="n">
-        <v>5.209886949513887</v>
+        <v>4.894137909943325</v>
       </c>
       <c r="D19" t="n">
-        <v>5.725711052699388</v>
+        <v>5.554988440002042</v>
       </c>
       <c r="E19" t="n">
-        <v>5.984186434247782</v>
+        <v>5.896967607800832</v>
       </c>
     </row>
     <row r="20">
@@ -758,16 +758,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.652397034028038</v>
+        <v>7.719488840723013</v>
       </c>
       <c r="C20" t="n">
-        <v>8.022351653952715</v>
+        <v>8.081847997856659</v>
       </c>
       <c r="D20" t="n">
-        <v>7.845966490456576</v>
+        <v>7.874255724603941</v>
       </c>
       <c r="E20" t="n">
-        <v>7.558189646242802</v>
+        <v>7.543436142859402</v>
       </c>
     </row>
     <row r="21">
@@ -775,16 +775,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.678703574400849</v>
+        <v>7.685738397544688</v>
       </c>
       <c r="C21" t="n">
-        <v>8.299187340028041</v>
+        <v>8.507772624246401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>7.662919751197549</v>
+        <v>7.660150309744783</v>
       </c>
     </row>
     <row r="22">
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>5.192833639004022</v>
+        <v>5.033834561402585</v>
       </c>
       <c r="D27" t="n">
-        <v>5.230657650723728</v>
+        <v>4.9875517115035</v>
       </c>
       <c r="E27" t="n">
-        <v>5.895547570433664</v>
+        <v>5.747511482012122</v>
       </c>
     </row>
     <row r="28">
@@ -894,16 +894,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.50609192763811</v>
+        <v>5.283575588130148</v>
       </c>
       <c r="C28" t="n">
-        <v>4.144317133142252</v>
+        <v>3.661355461286092</v>
       </c>
       <c r="D28" t="n">
-        <v>5.170596480202803</v>
+        <v>4.854130249635361</v>
       </c>
       <c r="E28" t="n">
-        <v>5.723579824944274</v>
+        <v>5.501705691649939</v>
       </c>
     </row>
     <row r="29">
@@ -911,16 +911,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.957751075850769</v>
+        <v>8.013668395373903</v>
       </c>
       <c r="C29" t="n">
-        <v>8.216361325598637</v>
+        <v>8.631186553748091</v>
       </c>
       <c r="D29" t="n">
-        <v>8.40251409943675</v>
+        <v>8.375841667754177</v>
       </c>
       <c r="E29" t="n">
-        <v>7.690884124328649</v>
+        <v>7.721108970004471</v>
       </c>
     </row>
     <row r="30">
@@ -928,16 +928,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.984490736286441</v>
+        <v>8.127456117686858</v>
       </c>
       <c r="C30" t="n">
-        <v>9.373407258929589</v>
+        <v>9.591396076383562</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7.845754162863198</v>
+        <v>7.852457924838113</v>
       </c>
     </row>
     <row r="31">
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>6.14011522309778</v>
+        <v>6.143207570567085</v>
       </c>
       <c r="D36" t="n">
-        <v>3.661688304398652</v>
+        <v>3.559924589269457</v>
       </c>
       <c r="E36" t="n">
-        <v>5.502003344231412</v>
+        <v>5.360683492954465</v>
       </c>
     </row>
     <row r="37">
@@ -1047,16 +1047,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.233132216939651</v>
+        <v>5.112972258139322</v>
       </c>
       <c r="C37" t="n">
         <v>5.115907697472721e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>3.793884079568727</v>
+        <v>3.953816679414544</v>
       </c>
       <c r="E37" t="n">
-        <v>5.137887552962965</v>
+        <v>4.863701659903199</v>
       </c>
     </row>
     <row r="38">
@@ -1064,16 +1064,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.247061347993027</v>
+        <v>8.569424469160479</v>
       </c>
       <c r="C38" t="n">
-        <v>8.013039319479081</v>
+        <v>8.052134663392446</v>
       </c>
       <c r="D38" t="n">
-        <v>9.226342283290963</v>
+        <v>9.877402972329168</v>
       </c>
       <c r="E38" t="n">
-        <v>7.985359361251582</v>
+        <v>8.09350964222876</v>
       </c>
     </row>
     <row r="39">
@@ -1081,16 +1081,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.333355696090345</v>
+        <v>8.440810620521658</v>
       </c>
       <c r="C39" t="n">
-        <v>8.47653403952561</v>
+        <v>8.292627755226718</v>
       </c>
       <c r="D39" t="n">
-        <v>13.0361579762686</v>
+        <v>13.91275116237472</v>
       </c>
       <c r="E39" t="n">
-        <v>8.299953313186972</v>
+        <v>8.439185035854159</v>
       </c>
     </row>
     <row r="40">
@@ -1098,16 +1098,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.60824291063793</v>
+        <v>9.773049471891948</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3182723143682257</v>
+        <v>0.01593787481787165</v>
       </c>
       <c r="D40" t="n">
-        <v>16.51017248568937</v>
+        <v>16.58474527158703</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08153430661091657</v>
+        <v>0.6721076112494674</v>
       </c>
     </row>
     <row r="41">
@@ -1115,16 +1115,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.38033436685816</v>
+        <v>12.97434500718611</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4434577519985603</v>
+        <v>0.4331516568122282</v>
       </c>
       <c r="D41" t="n">
-        <v>18.53237452020876</v>
+        <v>18.01079834402569</v>
       </c>
       <c r="E41" t="n">
-        <v>1.618552824510287</v>
+        <v>0.7082913715693964</v>
       </c>
     </row>
     <row r="42">
@@ -1132,16 +1132,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16.80507587038486</v>
+        <v>16.53657442924489</v>
       </c>
       <c r="C42" t="n">
-        <v>1.258271277691712</v>
+        <v>1.001630950305108</v>
       </c>
       <c r="D42" t="n">
-        <v>18.68433676943416</v>
+        <v>17.65734735785046</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4870726388196621</v>
+        <v>1.980843203503166</v>
       </c>
     </row>
     <row r="43">
@@ -1149,16 +1149,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18.18588457343258</v>
+        <v>17.93182838685327</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03985943258080294</v>
+        <v>0.8035339827927593</v>
       </c>
       <c r="D43" t="n">
-        <v>16.08272463440203</v>
+        <v>14.47847030509513</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2848837828718454</v>
+        <v>0.3562140136450638</v>
       </c>
     </row>
     <row r="44">
@@ -1166,16 +1166,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17.94648322744174</v>
+        <v>17.10936260309838</v>
       </c>
       <c r="C44" t="n">
-        <v>1.454204425760127</v>
+        <v>0.5877025522279671</v>
       </c>
       <c r="D44" t="n">
-        <v>8.515613513441295</v>
+        <v>7.654747084313243</v>
       </c>
       <c r="E44" t="n">
-        <v>2.102113703209469</v>
+        <v>0.06756500158660007</v>
       </c>
     </row>
     <row r="45">
@@ -1183,16 +1183,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.37685392489126</v>
+        <v>13.49415080070312</v>
       </c>
       <c r="C45" t="n">
-        <v>5.813217280441691</v>
+        <v>5.192934876942815</v>
       </c>
       <c r="D45" t="n">
         <v>5.115907697472721e-13</v>
       </c>
       <c r="E45" t="n">
-        <v>5.111317152895367</v>
+        <v>5.019053935951774</v>
       </c>
     </row>
     <row r="46">
@@ -1217,16 +1217,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8.014211567113033</v>
+        <v>8.033726450416433</v>
       </c>
       <c r="C47" t="n">
-        <v>7.693074791702749</v>
+        <v>7.667705808936933</v>
       </c>
       <c r="D47" t="n">
-        <v>8.376668924455821</v>
+        <v>8.488080235706017</v>
       </c>
       <c r="E47" t="n">
-        <v>8.26051808498014</v>
+        <v>8.409630871162895</v>
       </c>
     </row>
     <row r="48">
@@ -1234,16 +1234,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.982384169104334</v>
+        <v>8.003349098847613</v>
       </c>
       <c r="C48" t="n">
-        <v>7.879000988967656</v>
+        <v>7.790340771773803</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9.522730955831088</v>
+        <v>9.730736068364585</v>
       </c>
     </row>
     <row r="49">
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>5.872076853606899</v>
+        <v>5.406976974286792</v>
       </c>
       <c r="D54" t="n">
-        <v>4.138099939188422</v>
+        <v>4.069223748750503</v>
       </c>
       <c r="E54" t="n">
-        <v>6.542649723531952</v>
+        <v>6.525240331264754</v>
       </c>
     </row>
     <row r="55">
@@ -1353,13 +1353,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.890725247619955</v>
+        <v>5.000765693678929</v>
       </c>
       <c r="C55" t="n">
-        <v>5.54644532691249</v>
+        <v>5.068367311979387</v>
       </c>
       <c r="D55" t="n">
-        <v>4.632846598802303</v>
+        <v>3.451520104112049</v>
       </c>
       <c r="E55" t="n">
         <v>5.115907697472721e-13</v>
@@ -1370,16 +1370,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.695740334729681</v>
+        <v>7.674970889473061</v>
       </c>
       <c r="C56" t="n">
-        <v>7.559206917564072</v>
+        <v>7.445446003286111</v>
       </c>
       <c r="D56" t="n">
-        <v>7.852519167625605</v>
+        <v>7.826808622528389</v>
       </c>
       <c r="E56" t="n">
-        <v>7.970750228506523</v>
+        <v>7.990418069020491</v>
       </c>
     </row>
     <row r="57">
@@ -1387,16 +1387,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.691086770432372</v>
+        <v>7.652527319823387</v>
       </c>
       <c r="C57" t="n">
-        <v>7.706042504305771</v>
+        <v>7.579957357145052</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>8.511013544722957</v>
+        <v>8.463974354900468</v>
       </c>
     </row>
     <row r="58">
@@ -1492,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>6.209501786026358</v>
+        <v>5.897995407111082</v>
       </c>
       <c r="D63" t="n">
-        <v>5.560417573241395</v>
+        <v>5.137536322730071</v>
       </c>
       <c r="E63" t="n">
-        <v>5.67255680493227</v>
+        <v>5.350000709597765</v>
       </c>
     </row>
     <row r="64">
@@ -1506,16 +1506,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.875606195414264</v>
+        <v>5.457166271761039</v>
       </c>
       <c r="C64" t="n">
-        <v>6.033471617010683</v>
+        <v>5.733599502397126</v>
       </c>
       <c r="D64" t="n">
-        <v>5.605855468730752</v>
+        <v>5.213100771974098</v>
       </c>
       <c r="E64" t="n">
-        <v>4.572814450211695</v>
+        <v>3.570983650926934</v>
       </c>
     </row>
     <row r="65">
@@ -1523,16 +1523,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.553247338816782</v>
+        <v>7.445674575298014</v>
       </c>
       <c r="C65" t="n">
-        <v>7.542067672543059</v>
+        <v>7.419181184551984</v>
       </c>
       <c r="D65" t="n">
-        <v>7.701722762373286</v>
+        <v>7.597481707646363</v>
       </c>
       <c r="E65" t="n">
-        <v>7.698535988429418</v>
+        <v>7.653824228310663</v>
       </c>
     </row>
     <row r="66">
@@ -1540,16 +1540,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.550709835599942</v>
+        <v>7.449015079719352</v>
       </c>
       <c r="C66" t="n">
-        <v>7.770035072965229</v>
+        <v>7.698300808731322</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>7.871508256974062</v>
+        <v>7.758163466126838</v>
       </c>
     </row>
     <row r="67">
@@ -1645,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>6.566346476893337</v>
+        <v>6.315532963401921</v>
       </c>
       <c r="D72" t="n">
-        <v>6.058816838419865</v>
+        <v>5.672753039876774</v>
       </c>
       <c r="E72" t="n">
-        <v>5.817891087918099</v>
+        <v>5.504802370077556</v>
       </c>
     </row>
     <row r="73">
@@ -1659,16 +1659,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.195815490276694</v>
+        <v>5.910538727939212</v>
       </c>
       <c r="C73" t="n">
-        <v>6.251460706700243</v>
+        <v>5.955475609844285</v>
       </c>
       <c r="D73" t="n">
-        <v>6.029676868078184</v>
+        <v>5.705661677834627</v>
       </c>
       <c r="E73" t="n">
-        <v>5.621602563318973</v>
+        <v>5.158823222691311</v>
       </c>
     </row>
     <row r="74">
@@ -1676,16 +1676,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.545265330867615</v>
+        <v>7.426352152935582</v>
       </c>
       <c r="C74" t="n">
-        <v>7.553916936633833</v>
+        <v>7.430812427067131</v>
       </c>
       <c r="D74" t="n">
-        <v>7.76811823524735</v>
+        <v>7.642051773992947</v>
       </c>
       <c r="E74" t="n">
-        <v>7.542504434655218</v>
+        <v>7.462654768798789</v>
       </c>
     </row>
     <row r="75">
@@ -1693,16 +1693,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.551141862404965</v>
+        <v>7.397369334930332</v>
       </c>
       <c r="C75" t="n">
-        <v>7.715044329738294</v>
+        <v>7.660900285961716</v>
       </c>
       <c r="D75" t="n">
-        <v>8.01347627119484</v>
+        <v>7.920979571398849</v>
       </c>
       <c r="E75" t="n">
-        <v>7.722920644574124</v>
+        <v>7.636843883422131</v>
       </c>
     </row>
     <row r="76">
@@ -1710,13 +1710,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.775041915652892</v>
+        <v>7.653353571313055</v>
       </c>
       <c r="C76" t="n">
-        <v>8.011250845843058</v>
+        <v>7.938990856742819</v>
       </c>
       <c r="D76" t="n">
-        <v>8.050352695651547</v>
+        <v>7.907385819473848</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.033122198521149</v>
+        <v>7.937959944361648</v>
       </c>
       <c r="C77" t="n">
-        <v>8.042427692885507</v>
+        <v>7.922485819957661</v>
       </c>
       <c r="D77" t="n">
-        <v>7.928844406941799</v>
+        <v>7.755382528530589</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8.042029726744403</v>
+        <v>7.923683559963624</v>
       </c>
       <c r="C78" t="n">
-        <v>7.904894734585298</v>
+        <v>7.736031175424117</v>
       </c>
       <c r="D78" t="n">
-        <v>7.647556518057158</v>
+        <v>7.471949902244177</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -1761,13 +1761,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.909217735144892</v>
+        <v>7.752316348433332</v>
       </c>
       <c r="C79" t="n">
-        <v>7.635093646129555</v>
+        <v>7.520059326734469</v>
       </c>
       <c r="D79" t="n">
-        <v>7.224351349390815</v>
+        <v>6.988001850599957</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1778,13 +1778,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.608174458087106</v>
+        <v>7.479588005984098</v>
       </c>
       <c r="C80" t="n">
-        <v>7.181757922326547</v>
+        <v>7.047788920408934</v>
       </c>
       <c r="D80" t="n">
-        <v>6.572773446577273</v>
+        <v>6.30275453525158</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.300958591946099</v>
+        <v>7.056884793138231</v>
       </c>
       <c r="C81" t="n">
-        <v>6.612283696849673</v>
+        <v>6.270238043868154</v>
       </c>
       <c r="D81" t="n">
-        <v>6.265139581899007</v>
+        <v>6.001266613065688</v>
       </c>
       <c r="E81" t="n">
-        <v>6.228338665909256</v>
+        <v>5.822335631144242</v>
       </c>
     </row>
     <row r="82">
@@ -1812,16 +1812,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.618802354684306</v>
+        <v>6.280531338280191</v>
       </c>
       <c r="C82" t="n">
-        <v>6.273432973579304</v>
+        <v>5.944716057448233</v>
       </c>
       <c r="D82" t="n">
-        <v>6.277730028507094</v>
+        <v>5.926471083104737</v>
       </c>
       <c r="E82" t="n">
-        <v>6.017985684381749</v>
+        <v>5.692704116739584</v>
       </c>
     </row>
   </sheetData>
